--- a/data/trans_orig/P19C01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C01-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>160832</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>138648</v>
+        <v>139757</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>186274</v>
+        <v>184837</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2333039944990937</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2011242084321843</v>
+        <v>0.2027326686493593</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2702115540404572</v>
+        <v>0.2681266322135191</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>211</v>
@@ -765,19 +765,19 @@
         <v>214970</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>191913</v>
+        <v>189902</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>243454</v>
+        <v>240592</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2241702680687963</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2001261779008278</v>
+        <v>0.1980290857609754</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2538729594834111</v>
+        <v>0.2508886172099433</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>371</v>
@@ -786,19 +786,19 @@
         <v>375802</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>344268</v>
+        <v>344573</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>411510</v>
+        <v>413276</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2279901931886548</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2088591709716432</v>
+        <v>0.2090445276140927</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2496533101472146</v>
+        <v>0.2507248292503441</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>528533</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>503091</v>
+        <v>504528</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>550717</v>
+        <v>549608</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7666960055009063</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7297884459595428</v>
+        <v>0.7318733677864808</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7988757915678156</v>
+        <v>0.7972673313506407</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>736</v>
@@ -836,19 +836,19 @@
         <v>743989</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>715505</v>
+        <v>718367</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>767046</v>
+        <v>769057</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7758297319312037</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7461270405165891</v>
+        <v>0.7491113827900566</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7998738220991726</v>
+        <v>0.8019709142390246</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1272</v>
@@ -857,19 +857,19 @@
         <v>1272522</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1236814</v>
+        <v>1235048</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1304056</v>
+        <v>1303751</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7720098068113452</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7503466898527854</v>
+        <v>0.7492751707496559</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7911408290283566</v>
+        <v>0.7909554723859074</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>388584</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>355369</v>
+        <v>351992</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>424438</v>
+        <v>420829</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2956253127816238</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2703558999139138</v>
+        <v>0.2677870912849619</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3229022328467309</v>
+        <v>0.3201561886228699</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>475</v>
@@ -982,19 +982,19 @@
         <v>485045</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>449059</v>
+        <v>447125</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>522809</v>
+        <v>516766</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3534635080750686</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3272392481582988</v>
+        <v>0.3258300479020091</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3809825050184135</v>
+        <v>0.3765790935395625</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>855</v>
@@ -1003,19 +1003,19 @@
         <v>873629</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>829476</v>
+        <v>820064</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>924898</v>
+        <v>919413</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3251667328700589</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3087327903572009</v>
+        <v>0.3052294784607781</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3442489226024296</v>
+        <v>0.3422076491751995</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>925864</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>890010</v>
+        <v>893619</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>959079</v>
+        <v>962456</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7043746872183763</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6770977671532689</v>
+        <v>0.67984381137713</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7296441000860862</v>
+        <v>0.7322129087150381</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>868</v>
@@ -1053,19 +1053,19 @@
         <v>887219</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>849455</v>
+        <v>855498</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>923205</v>
+        <v>925139</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6465364919249315</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6190174949815866</v>
+        <v>0.6234209064604375</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6727607518417013</v>
+        <v>0.6741699520979908</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1769</v>
@@ -1074,19 +1074,19 @@
         <v>1813083</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1761814</v>
+        <v>1767299</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1857236</v>
+        <v>1866648</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6748332671299411</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6557510773975704</v>
+        <v>0.6577923508248005</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6912672096427991</v>
+        <v>0.6947705215392218</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>182915</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>160779</v>
+        <v>159962</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>204476</v>
+        <v>204648</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4042931932689807</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3553660654963335</v>
+        <v>0.3535608972468023</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4519493810687321</v>
+        <v>0.4523289262509022</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>153</v>
@@ -1199,19 +1199,19 @@
         <v>160049</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>140857</v>
+        <v>140584</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>180847</v>
+        <v>180667</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3915249237248163</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3445761636366668</v>
+        <v>0.3439079344142577</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4424038303141931</v>
+        <v>0.441962475761584</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>326</v>
@@ -1220,19 +1220,19 @@
         <v>342964</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>314335</v>
+        <v>312777</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>373254</v>
+        <v>372446</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3982326268190999</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3649900173814314</v>
+        <v>0.3631809684764515</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4334041105384996</v>
+        <v>0.4324660289925856</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>269517</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>247956</v>
+        <v>247784</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>291653</v>
+        <v>292470</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5957068067310193</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5480506189312678</v>
+        <v>0.5476710737490975</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6446339345036665</v>
+        <v>0.6464391027531977</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>235</v>
@@ -1270,19 +1270,19 @@
         <v>248734</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>227936</v>
+        <v>228116</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>267926</v>
+        <v>268199</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6084750762751837</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5575961696858068</v>
+        <v>0.5580375242384159</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6554238363633332</v>
+        <v>0.6560920655857423</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>493</v>
@@ -1291,19 +1291,19 @@
         <v>518251</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>487961</v>
+        <v>488769</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>546880</v>
+        <v>548438</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6017673731809001</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5665958894615004</v>
+        <v>0.5675339710074144</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6350099826185687</v>
+        <v>0.6368190315235486</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>732331</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>685686</v>
+        <v>687084</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>781512</v>
+        <v>778086</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2981505877052048</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2791603656560006</v>
+        <v>0.2797294812321364</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3181734517913822</v>
+        <v>0.3167788364700802</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>839</v>
@@ -1416,19 +1416,19 @@
         <v>860064</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>812745</v>
+        <v>808493</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>912029</v>
+        <v>905981</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3138913274493892</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2966215097468581</v>
+        <v>0.2950697197079569</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3328566081873888</v>
+        <v>0.330649202192282</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1552</v>
@@ -1437,19 +1437,19 @@
         <v>1592395</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1525362</v>
+        <v>1528448</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1663069</v>
+        <v>1657594</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3064507485432453</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2935505156213891</v>
+        <v>0.2941442396808467</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3200516812709652</v>
+        <v>0.3189980000893584</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1723914</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1674733</v>
+        <v>1678159</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1770559</v>
+        <v>1769161</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7018494122947952</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6818265482086178</v>
+        <v>0.68322116352992</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7208396343439993</v>
+        <v>0.7202705187678636</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1839</v>
@@ -1487,19 +1487,19 @@
         <v>1879942</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1827977</v>
+        <v>1834025</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1927261</v>
+        <v>1931513</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6861086725506108</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.667143391812611</v>
+        <v>0.6693507978077184</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7033784902531418</v>
+        <v>0.7049302802920434</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3534</v>
@@ -1508,19 +1508,19 @@
         <v>3603857</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3533183</v>
+        <v>3538658</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3670890</v>
+        <v>3667804</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6935492514567546</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6799483187290348</v>
+        <v>0.6810019999106416</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7064494843786109</v>
+        <v>0.7058557603191533</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>135851</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>113547</v>
+        <v>115461</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>159933</v>
+        <v>158303</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1743522839658416</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1457269632207892</v>
+        <v>0.1481840845150495</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2052592351120839</v>
+        <v>0.2031678502608244</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>242</v>
@@ -1872,19 +1872,19 @@
         <v>260576</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>235911</v>
+        <v>233991</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>292701</v>
+        <v>289926</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2309634729259462</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2091014677013462</v>
+        <v>0.2073992505354419</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2594378640500536</v>
+        <v>0.2569778896908658</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>371</v>
@@ -1893,19 +1893,19 @@
         <v>396427</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>359628</v>
+        <v>360426</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>430938</v>
+        <v>431043</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2078376128467263</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1885447242803892</v>
+        <v>0.1889631650758211</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2259310142692609</v>
+        <v>0.2259860409568524</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>643323</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>619241</v>
+        <v>620871</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>665627</v>
+        <v>663713</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8256477160341584</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7947407648879161</v>
+        <v>0.7968321497391755</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8542730367792107</v>
+        <v>0.8518159154849506</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>810</v>
@@ -1943,19 +1943,19 @@
         <v>867637</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>835512</v>
+        <v>838287</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>892302</v>
+        <v>894222</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7690365270740539</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7405621359499465</v>
+        <v>0.7430221103091342</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7908985322986537</v>
+        <v>0.7926007494645582</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1414</v>
@@ -1964,19 +1964,19 @@
         <v>1510959</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1476448</v>
+        <v>1476343</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1547758</v>
+        <v>1546960</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7921623871532737</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7740689857307391</v>
+        <v>0.7740139590431476</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8114552757196101</v>
+        <v>0.8110368349241789</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>530270</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>489890</v>
+        <v>492303</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>567191</v>
+        <v>573948</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3140895390172145</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2901715009773091</v>
+        <v>0.2916005364674287</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3359583687850543</v>
+        <v>0.3399607053338724</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>547</v>
@@ -2089,19 +2089,19 @@
         <v>583837</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>542724</v>
+        <v>544464</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>620080</v>
+        <v>621438</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3673596981903527</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3414906145599099</v>
+        <v>0.3425856001078759</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3901640433160022</v>
+        <v>0.3910186396375109</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1046</v>
@@ -2110,19 +2110,19 @@
         <v>1114108</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1056018</v>
+        <v>1057741</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1169707</v>
+        <v>1172244</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3399201131044759</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3221965210143384</v>
+        <v>0.3227221756710668</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3568838327657502</v>
+        <v>0.3576577437331816</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1158008</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1121087</v>
+        <v>1114330</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1198388</v>
+        <v>1195975</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6859104609827855</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6640416312149456</v>
+        <v>0.6600392946661278</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7098284990226907</v>
+        <v>0.7083994635325713</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>929</v>
@@ -2160,19 +2160,19 @@
         <v>1005443</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>969200</v>
+        <v>967842</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1046556</v>
+        <v>1044816</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6326403018096473</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6098359566839977</v>
+        <v>0.608981360362489</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6585093854400899</v>
+        <v>0.657414399892124</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2027</v>
@@ -2181,19 +2181,19 @@
         <v>2163450</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2107851</v>
+        <v>2105314</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2221540</v>
+        <v>2219817</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6600798868955241</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6431161672342498</v>
+        <v>0.6423422562668184</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6778034789856616</v>
+        <v>0.6772778243289332</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>190688</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>166587</v>
+        <v>167117</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>212838</v>
+        <v>212269</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4312897901525738</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3767791280290056</v>
+        <v>0.3779789328830306</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.481388413919858</v>
+        <v>0.4801019982425385</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>208</v>
@@ -2306,19 +2306,19 @@
         <v>231143</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>210014</v>
+        <v>209636</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>252332</v>
+        <v>254445</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5455058244028459</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4956392240657031</v>
+        <v>0.4947487022631737</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5955127543973341</v>
+        <v>0.6004988981479189</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>380</v>
@@ -2327,19 +2327,19 @@
         <v>421831</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>391244</v>
+        <v>389591</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>454969</v>
+        <v>452325</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4871835020981291</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4518574708891778</v>
+        <v>0.4499490064961704</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.525454875122462</v>
+        <v>0.5224016418504303</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>251446</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>229296</v>
+        <v>229865</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>275547</v>
+        <v>275017</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5687102098474262</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.518611586080142</v>
+        <v>0.5198980017574613</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6232208719709944</v>
+        <v>0.6220210671169693</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>174</v>
@@ -2377,19 +2377,19 @@
         <v>192580</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>171391</v>
+        <v>169278</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>213709</v>
+        <v>214087</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.454494175597154</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4044872456026659</v>
+        <v>0.3995011018520811</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5043607759342968</v>
+        <v>0.5052512977368263</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>403</v>
@@ -2398,19 +2398,19 @@
         <v>444026</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>410888</v>
+        <v>413532</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>474613</v>
+        <v>476266</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5128164979018709</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4745451248775383</v>
+        <v>0.4775983581495698</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5481425291108223</v>
+        <v>0.5500509935038296</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>856809</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>809556</v>
+        <v>806458</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>910732</v>
+        <v>905769</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2944780312381021</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2782375761897228</v>
+        <v>0.2771728340245743</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3130107372001833</v>
+        <v>0.3113052309523807</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>997</v>
@@ -2523,19 +2523,19 @@
         <v>1075557</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1021355</v>
+        <v>1020557</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1133063</v>
+        <v>1133788</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.342401430217939</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3251462748741561</v>
+        <v>0.3248923084254807</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3607084080956821</v>
+        <v>0.3609391326432499</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1797</v>
@@ -2544,19 +2544,19 @@
         <v>1932366</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1862930</v>
+        <v>1859210</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2005435</v>
+        <v>2003112</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3193570063875631</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3078815161978459</v>
+        <v>0.3072667262293414</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3314330146381862</v>
+        <v>0.3310489894847025</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>2052777</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1998854</v>
+        <v>2003817</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2100030</v>
+        <v>2103128</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.705521968761898</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6869892627998172</v>
+        <v>0.6886947690476192</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7217624238102773</v>
+        <v>0.7228271659754257</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1913</v>
@@ -2594,19 +2594,19 @@
         <v>2065659</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2008153</v>
+        <v>2007428</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2119861</v>
+        <v>2120659</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.657598569782061</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6392915919043179</v>
+        <v>0.6390608673567505</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.674853725125844</v>
+        <v>0.6751076915745193</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3844</v>
@@ -2615,19 +2615,19 @@
         <v>4118435</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4045366</v>
+        <v>4047689</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4187871</v>
+        <v>4191591</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6806429936124369</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6685669853618138</v>
+        <v>0.6689510105152974</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.692118483802154</v>
+        <v>0.6927332737706585</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>125302</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>106975</v>
+        <v>106083</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>144671</v>
+        <v>143553</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2739321728884747</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2338655556755468</v>
+        <v>0.231915936924086</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3162775902565118</v>
+        <v>0.3138329267321494</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>201</v>
@@ -2979,19 +2979,19 @@
         <v>216474</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>192783</v>
+        <v>193311</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>241895</v>
+        <v>241093</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3388360233015663</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3017550482992348</v>
+        <v>0.3025807822748852</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3786276921846388</v>
+        <v>0.3773711255962739</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>330</v>
@@ -3000,19 +3000,19 @@
         <v>341775</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>312438</v>
+        <v>312377</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>374284</v>
+        <v>373707</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3117554374869752</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2849953925585436</v>
+        <v>0.2849389904791542</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3414082967436413</v>
+        <v>0.3408823802130016</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>332117</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>312748</v>
+        <v>313866</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>350444</v>
+        <v>351336</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7260678271115253</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6837224097434882</v>
+        <v>0.6861670732678506</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7661344443244532</v>
+        <v>0.768084063075914</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>381</v>
@@ -3050,19 +3050,19 @@
         <v>422400</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>396979</v>
+        <v>397781</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>446091</v>
+        <v>445563</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6611639766984336</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6213723078153621</v>
+        <v>0.6226288744037261</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6982449517007654</v>
+        <v>0.6974192177251148</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>713</v>
@@ -3071,19 +3071,19 @@
         <v>754518</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>722009</v>
+        <v>722586</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>783855</v>
+        <v>783916</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6882445625130248</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6585917032563589</v>
+        <v>0.6591176197869985</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7150046074414566</v>
+        <v>0.7150610095208457</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>704537</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>662553</v>
+        <v>664093</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>745562</v>
+        <v>745407</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4152627360930035</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3905169806823215</v>
+        <v>0.3914246798442943</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.439443198573341</v>
+        <v>0.4393522095612403</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>736</v>
@@ -3196,19 +3196,19 @@
         <v>760063</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>716924</v>
+        <v>718889</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>801979</v>
+        <v>804640</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4448146550861967</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4195682605726824</v>
+        <v>0.4207178920310345</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4693451721198401</v>
+        <v>0.4709026292742681</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1400</v>
@@ -3217,19 +3217,19 @@
         <v>1464600</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1407079</v>
+        <v>1401072</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1524511</v>
+        <v>1527148</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4300912571577149</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.413199765199516</v>
+        <v>0.4114356324743323</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4476846250583059</v>
+        <v>0.4484590563481235</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>992068</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>951043</v>
+        <v>951198</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1034052</v>
+        <v>1032512</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5847372639069965</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.560556801426659</v>
+        <v>0.5606477904387597</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6094830193176785</v>
+        <v>0.6085753201557057</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>910</v>
@@ -3267,19 +3267,19 @@
         <v>948656</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>906740</v>
+        <v>904079</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>991795</v>
+        <v>989830</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5551853449138032</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5306548278801599</v>
+        <v>0.5290973707257319</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5804317394273176</v>
+        <v>0.5792821079689655</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1845</v>
@@ -3288,19 +3288,19 @@
         <v>1940724</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1880813</v>
+        <v>1878176</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1998245</v>
+        <v>2004252</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5699087428422851</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5523153749416941</v>
+        <v>0.5515409436518764</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5868002348004839</v>
+        <v>0.5885643675256677</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>252422</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>228908</v>
+        <v>228297</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>275736</v>
+        <v>276073</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5056090749873308</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4585095101082382</v>
+        <v>0.4572853631274654</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5523061760506116</v>
+        <v>0.5529827222189344</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>259</v>
@@ -3413,19 +3413,19 @@
         <v>264082</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>242814</v>
+        <v>242064</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>288377</v>
+        <v>287511</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5195190028716115</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4776801003273957</v>
+        <v>0.4762031829595816</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5673140226878512</v>
+        <v>0.5656107819736115</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>495</v>
@@ -3434,19 +3434,19 @@
         <v>516504</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>485476</v>
+        <v>483985</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>549278</v>
+        <v>548414</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5126266840909286</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4818315158652829</v>
+        <v>0.4803519243446518</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5451544927650134</v>
+        <v>0.5442972936299083</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>246822</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>223508</v>
+        <v>223171</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>270336</v>
+        <v>270947</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4943909250126692</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4476938239493884</v>
+        <v>0.4470172777810655</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5414904898917617</v>
+        <v>0.5427146368725346</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>229</v>
@@ -3484,19 +3484,19 @@
         <v>244238</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>219943</v>
+        <v>220809</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>265506</v>
+        <v>266256</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4804809971283885</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4326859773121487</v>
+        <v>0.4343892180263885</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5223198996726044</v>
+        <v>0.5237968170404185</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>452</v>
@@ -3505,19 +3505,19 @@
         <v>491060</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>458286</v>
+        <v>459150</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>522088</v>
+        <v>523579</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4873733159090714</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4548455072349867</v>
+        <v>0.4557027063700917</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5181684841347172</v>
+        <v>0.5196480756553483</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>1082261</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1034791</v>
+        <v>1031600</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1132610</v>
+        <v>1135348</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4078973258122543</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3900062090975119</v>
+        <v>0.3888032221337985</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4268735285833805</v>
+        <v>0.4279054263288551</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1196</v>
@@ -3630,19 +3630,19 @@
         <v>1240619</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1189902</v>
+        <v>1188692</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1296629</v>
+        <v>1294234</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4344035112070722</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4166449245994078</v>
+        <v>0.4162212821767537</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4540157530661162</v>
+        <v>0.4531771197220476</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2225</v>
@@ -3651,19 +3651,19 @@
         <v>2322880</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2250144</v>
+        <v>2248169</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2399342</v>
+        <v>2396522</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4216379063182535</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4084352363176921</v>
+        <v>0.4080766612898193</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4355168542766985</v>
+        <v>0.4350051187494466</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>1571008</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1520659</v>
+        <v>1517921</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1618478</v>
+        <v>1621669</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5921026741877458</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5731264714166194</v>
+        <v>0.572094573671145</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6099937909024882</v>
+        <v>0.6111967778662015</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1520</v>
@@ -3701,19 +3701,19 @@
         <v>1615294</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1559284</v>
+        <v>1561679</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1666011</v>
+        <v>1667221</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5655964887929278</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5459842469338838</v>
+        <v>0.5468228802779525</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5833550754005923</v>
+        <v>0.5837787178232463</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3010</v>
@@ -3722,19 +3722,19 @@
         <v>3186302</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3109840</v>
+        <v>3112660</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3259038</v>
+        <v>3261013</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5783620936817464</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5644831457233012</v>
+        <v>0.5649948812505534</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5915647636823077</v>
+        <v>0.5919233387101808</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>196823</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>174830</v>
+        <v>173479</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>217493</v>
+        <v>220566</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3663328021085354</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3253993935660645</v>
+        <v>0.3228840299854026</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4048051832788051</v>
+        <v>0.4105244284816992</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>540</v>
@@ -4086,19 +4086,19 @@
         <v>329892</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>309250</v>
+        <v>307578</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>354229</v>
+        <v>350646</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4204626528150011</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3941541883761018</v>
+        <v>0.3920222706590757</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4514814424494095</v>
+        <v>0.4469153263807739</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>758</v>
@@ -4107,19 +4107,19 @@
         <v>526715</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>493934</v>
+        <v>498382</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>555093</v>
+        <v>560272</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3984613953134743</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.373663136650948</v>
+        <v>0.3770276249003595</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4199297190301959</v>
+        <v>0.4238474447827779</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>340456</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>319786</v>
+        <v>316713</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>362449</v>
+        <v>363800</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6336671978914645</v>
+        <v>0.6336671978914646</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5951948167211949</v>
+        <v>0.5894755715183009</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6746006064339355</v>
+        <v>0.6771159700145973</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>830</v>
@@ -4157,19 +4157,19 @@
         <v>454700</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>430363</v>
+        <v>433946</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>475342</v>
+        <v>477014</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5795373471849989</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5485185575505905</v>
+        <v>0.5530846736192262</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6058458116238983</v>
+        <v>0.6079777293409244</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1260</v>
@@ -4178,19 +4178,19 @@
         <v>795156</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>766778</v>
+        <v>761599</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>827937</v>
+        <v>823489</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6015386046865259</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.580070280969804</v>
+        <v>0.5761525552172222</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6263368633490518</v>
+        <v>0.6229723750996407</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>1253366</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1198038</v>
+        <v>1204539</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1306873</v>
+        <v>1306563</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5839176397476539</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5581411689646757</v>
+        <v>0.5611698258819218</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6088452375655868</v>
+        <v>0.6087008275127022</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1812</v>
@@ -4303,19 +4303,19 @@
         <v>1324501</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1282417</v>
+        <v>1286066</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1366110</v>
+        <v>1365706</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6275496591285534</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6076102087354823</v>
+        <v>0.6093391961584539</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6472638364370326</v>
+        <v>0.647072259691417</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2951</v>
@@ -4324,19 +4324,19 @@
         <v>2577868</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2509870</v>
+        <v>2513548</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2646757</v>
+        <v>2642803</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.6055497417651966</v>
+        <v>0.6055497417651967</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5895768257883985</v>
+        <v>0.5904407493887528</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6217319744050243</v>
+        <v>0.6208032484410307</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>893112</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>839605</v>
+        <v>839915</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>948440</v>
+        <v>941939</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4160823602523462</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3911547624344129</v>
+        <v>0.3912991724872976</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4418588310353243</v>
+        <v>0.4388301741180777</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1037</v>
@@ -4374,19 +4374,19 @@
         <v>786091</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>744482</v>
+        <v>744886</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>828175</v>
+        <v>824526</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3724503408714465</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3527361635629677</v>
+        <v>0.3529277403085829</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3923897912645176</v>
+        <v>0.3906608038415459</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1821</v>
@@ -4395,19 +4395,19 @@
         <v>1679202</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1610313</v>
+        <v>1614267</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1747200</v>
+        <v>1743522</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3944502582348033</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3782680255949755</v>
+        <v>0.3791967515589692</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4104231742116016</v>
+        <v>0.4095592506112472</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>482798</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>453726</v>
+        <v>454390</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>508984</v>
+        <v>507516</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.6869709430854903</v>
+        <v>0.6869709430854904</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6456044920986173</v>
+        <v>0.646549346045177</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7242308710344094</v>
+        <v>0.7221419896281549</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>678</v>
@@ -4520,19 +4520,19 @@
         <v>486508</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>462925</v>
+        <v>462630</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>508683</v>
+        <v>508065</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.671588672080667</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6390345780777166</v>
+        <v>0.6386276070206447</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7021996868932882</v>
+        <v>0.701347116727693</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1137</v>
@@ -4541,19 +4541,19 @@
         <v>969306</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>932886</v>
+        <v>934364</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1002879</v>
+        <v>1001057</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6791632954077713</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6536452277721138</v>
+        <v>0.6546806057764605</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.702687016287458</v>
+        <v>0.701410067173176</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>219995</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>193809</v>
+        <v>195277</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>249067</v>
+        <v>248403</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3130290569145096</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2757691289655906</v>
+        <v>0.277858010371845</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3543955079013826</v>
+        <v>0.353450653954823</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>310</v>
@@ -4591,19 +4591,19 @@
         <v>237905</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>215730</v>
+        <v>216348</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>261488</v>
+        <v>261783</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.328411327919333</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2978003131067123</v>
+        <v>0.2986528832723076</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3609654219222836</v>
+        <v>0.3613723929793555</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>522</v>
@@ -4612,19 +4612,19 @@
         <v>457900</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>424327</v>
+        <v>426149</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>494320</v>
+        <v>492842</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3208367045922286</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2973129837125419</v>
+        <v>0.2985899328268241</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3463547722278861</v>
+        <v>0.3453193942235395</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>1932988</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1866648</v>
+        <v>1866995</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1995908</v>
+        <v>1996885</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5707837322718661</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5511946545195654</v>
+        <v>0.5512969052078879</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5893631418963808</v>
+        <v>0.5896516888038639</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3030</v>
@@ -4737,19 +4737,19 @@
         <v>2140900</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2084943</v>
+        <v>2084758</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2191972</v>
+        <v>2193932</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.5914748156723392</v>
+        <v>0.5914748156723391</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5760152883849348</v>
+        <v>0.5759639988780191</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6055844337405361</v>
+        <v>0.6061261631509005</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4846</v>
@@ -4758,19 +4758,19 @@
         <v>4073888</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3987378</v>
+        <v>3988896</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4155461</v>
+        <v>4160085</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.5814734000160788</v>
+        <v>0.5814734000160789</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5691255919584636</v>
+        <v>0.5693422737643802</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.593116489952296</v>
+        <v>0.5937763855526994</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>1453562</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1390642</v>
+        <v>1389665</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1519902</v>
+        <v>1519555</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.429216267728134</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4106368581036193</v>
+        <v>0.4103483111961361</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4488053454804346</v>
+        <v>0.4487030947921121</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2177</v>
@@ -4808,19 +4808,19 @@
         <v>1478697</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1427625</v>
+        <v>1425665</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1534654</v>
+        <v>1534839</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.408525184327661</v>
+        <v>0.4085251843276609</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3944155662594639</v>
+        <v>0.3938738368490995</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4239847116150652</v>
+        <v>0.424036001121981</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3603</v>
@@ -4829,19 +4829,19 @@
         <v>2932259</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2850686</v>
+        <v>2846062</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3018769</v>
+        <v>3017251</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4185265999839212</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4068835100477034</v>
+        <v>0.4062236144473007</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4308744080415365</v>
+        <v>0.4306577262356198</v>
       </c>
     </row>
     <row r="15">
